--- a/assets/Data Collections/Nature.xlsx
+++ b/assets/Data Collections/Nature.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B047A-26A1-43BD-A8D8-EDD519FB85F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A25F07E-4D69-44CC-B8AE-BA51EBEA2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gardens_Parks" sheetId="1" r:id="rId1"/>
     <sheet name="Zoo" sheetId="2" r:id="rId2"/>
-    <sheet name="Waterfalls" sheetId="4" r:id="rId3"/>
-    <sheet name="Dams" sheetId="5" r:id="rId4"/>
-    <sheet name="Lakes" sheetId="6" r:id="rId5"/>
-    <sheet name="Rivers" sheetId="7" r:id="rId6"/>
+    <sheet name="Lakes" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -96,68 +104,188 @@
     <t>fee</t>
   </si>
   <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>trek_difficulty</t>
-  </si>
-  <si>
-    <t>flow_months</t>
-  </si>
-  <si>
-    <t>swimming</t>
-  </si>
-  <si>
-    <t>route_type</t>
-  </si>
-  <si>
-    <t>road_condition</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>built_year</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>boating</t>
-  </si>
-  <si>
-    <t>viewpoint</t>
-  </si>
-  <si>
     <t>sunset_view</t>
   </si>
   <si>
     <t>water_quality</t>
   </si>
   <si>
-    <t>areas_flow</t>
-  </si>
-  <si>
-    <t>depth_warning</t>
-  </si>
-  <si>
-    <t>flood_note</t>
-  </si>
-  <si>
-    <t>photos</t>
+    <t>image url</t>
+  </si>
+  <si>
+    <t>contact number</t>
+  </si>
+  <si>
+    <t>Botanical Garden</t>
+  </si>
+  <si>
+    <t>Public Garden</t>
+  </si>
+  <si>
+    <t>White Town</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Botanical+Garden+Puducherry</t>
+  </si>
+  <si>
+    <t>9 AM – 6 PM</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>Restrooms, Seating</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Historic botanical garden</t>
+  </si>
+  <si>
+    <t>Walking, Photography</t>
+  </si>
+  <si>
+    <t>Tourism Department</t>
+  </si>
+  <si>
+    <t>No littering</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>Bharathi Park</t>
+  </si>
+  <si>
+    <t>City Park</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Bharathi+Park+Puducherry</t>
+  </si>
+  <si>
+    <t>6 AM – 8 PM</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Seating, Lighting</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>French-era landscaped park</t>
+  </si>
+  <si>
+    <t>Jogging, Relaxation</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>No pets</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Aayi Mandapam</t>
+  </si>
+  <si>
+    <t>Google maps</t>
+  </si>
+  <si>
+    <t>Orleanpet</t>
+  </si>
+  <si>
+    <t>https://share.google/M54GVcnKDv113YqjR</t>
+  </si>
+  <si>
+    <t>91 413 2339497</t>
+  </si>
+  <si>
+    <t>https://share.google/aHt2oqvucZBzPd3ZK</t>
+  </si>
+  <si>
+    <t>0413 233 9497</t>
+  </si>
+  <si>
+    <t>Garuda Park (Aviary &amp; Mini Zoo)</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Garuda+Park+Puducherry</t>
+  </si>
+  <si>
+    <t>6:00 AM – 6:30 PM</t>
+  </si>
+  <si>
+    <t>4 Acres</t>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>Aviary, Peacocks, Deer enclosure, Birds section</t>
+  </si>
+  <si>
+    <t>Walking paths, Seating, Lighting</t>
+  </si>
+  <si>
+    <t>No feeding animals, Maintain silence, No littering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pathukannu</t>
+  </si>
+  <si>
+    <t>A small public park with aviary and animal enclosures mainly for recreation and awareness</t>
+  </si>
+  <si>
+    <t>https://share.google/O8g7iqCzXoPY4w8CV</t>
+  </si>
+  <si>
+    <t>Ousteri</t>
+  </si>
+  <si>
+    <t>Ousteri Lake</t>
+  </si>
+  <si>
+    <t>Freshwater</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=Ousteri+Lake</t>
+  </si>
+  <si>
+    <t>Bird watching, Photography</t>
+  </si>
+  <si>
+    <t>Oct–Feb</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Large wetland and bird sanctuary</t>
+  </si>
+  <si>
+    <t>Ousteri village</t>
+  </si>
+  <si>
+    <t>https://share.google/uMsauGK5sQ6eHN14R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +297,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,16 +339,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,13 +652,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -554,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -563,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -572,20 +732,151 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2:D3" r:id="rId1" display="https://maps.google.com/?q=Botanical+Garden+Puducherry" xr:uid="{B9239ADD-245E-46C7-B3B2-B4F208E2EB1E}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{6FA9558D-11FF-4B53-855D-0AF8E291B13D}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{765EDCED-B02A-46C2-895F-4A750AAAD9D5}"/>
+    <hyperlink ref="O3" r:id="rId4" xr:uid="{FC443D4E-EA18-418F-97E7-ED6DCBDA2BD9}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{9DFDCAC0-4210-46FF-B69D-346D4A375C43}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" customWidth="1"/>
+    <col min="11" max="11" width="74.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="56.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,234 +920,177 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9791370716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{875ED3CC-9E13-4E2D-8BD7-64535465219D}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{3DCB78D6-FBC8-4D9D-8191-673F63D1C293}"/>
+    <hyperlink ref="L2" r:id="rId3" display="Nature.xlsx" xr:uid="{F9B78EF6-ACFF-4908-A615-FC4A2A73F46D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{A9B91C89-EEE2-4000-9715-84BD514E941A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C3419FF0-803B-4E54-879C-AE725BAC95D2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>